--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAgent.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAgent.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL_SVN\Documents\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA19664-9AE3-44DD-8AF1-C65C02C7822F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="12" windowWidth="19176" windowHeight="10176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -163,10 +173,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>decimal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Status</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -245,7 +251,60 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>代理狀態</t>
+    <t>findByAgentTlrNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgentTlrNo =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TlrNo Asc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>結束代理日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>結束代理時間</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByTlrNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TlrNo =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgentTlrNo Asc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimalD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">代理狀態
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -260,7 +319,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>未生效</t>
+      <t>未放行</t>
     </r>
     <r>
       <rPr>
@@ -279,71 +338,63 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>生效</t>
+      <t>已放行
+註</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByAgentTlrNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AgentTlrNo =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TlrNo Asc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>結束代理日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>結束代理時間</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EndTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeginDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeginTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByTlrNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TlrNo =</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>AgentTlrNo Asc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimalD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimalD</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>視為放行記號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(2021/12/9 by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>智誠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -620,8 +671,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -712,6 +763,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -747,6 +815,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -922,11 +1007,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -946,10 +1031,10 @@
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -974,7 +1059,7 @@
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="12"/>
@@ -1056,7 +1141,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>20</v>
@@ -1073,10 +1158,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>38</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>39</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>20</v>
@@ -1093,16 +1178,16 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>42</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="17"/>
@@ -1113,16 +1198,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
@@ -1135,16 +1220,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="17"/>
@@ -1155,30 +1240,30 @@
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <f>A12+1</f>
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>21</v>
@@ -1188,7 +1273,7 @@
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="17" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1197,13 +1282,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>26</v>
       </c>
       <c r="E16" s="18"/>
     </row>
@@ -1213,13 +1298,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>28</v>
       </c>
       <c r="E17" s="18">
         <v>6</v>
@@ -1231,13 +1316,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="18"/>
     </row>
@@ -1247,13 +1332,13 @@
         <v>9</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="18">
         <v>6</v>
@@ -1276,7 +1361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1305,24 +1390,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
